--- a/docs/CareConnect-Encounter-1.xlsx
+++ b/docs/CareConnect-Encounter-1.xlsx
@@ -2475,16 +2475,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="68.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.36328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="125.1875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.18359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2495,19 +2495,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="143.5625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="44.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/docs/CareConnect-Encounter-1.xlsx
+++ b/docs/CareConnect-Encounter-1.xlsx
@@ -2475,16 +2475,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="68.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.36328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="125.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2495,19 +2495,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="143.5625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/docs/CareConnect-Encounter-1.xlsx
+++ b/docs/CareConnect-Encounter-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4424" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4424" uniqueCount="554">
   <si>
     <t>Path</t>
   </si>
@@ -820,6 +820,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Encounter.type.coding.system</t>
@@ -6577,10 +6583,10 @@
         <v>256</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6646,7 +6652,7 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>42</v>
@@ -6657,7 +6663,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6683,23 +6689,23 @@
         <v>62</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>42</v>
@@ -6741,7 +6747,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6756,18 +6762,18 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6793,13 +6799,13 @@
         <v>126</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6849,7 +6855,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6864,18 +6870,18 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6901,14 +6907,14 @@
         <v>68</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6957,7 +6963,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6972,18 +6978,18 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7009,14 +7015,14 @@
         <v>126</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -7065,7 +7071,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -7080,18 +7086,18 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7114,19 +7120,19 @@
         <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7175,7 +7181,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -7190,18 +7196,18 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7227,16 +7233,16 @@
         <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7285,7 +7291,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -7300,18 +7306,18 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7337,10 +7343,10 @@
         <v>147</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7370,29 +7376,29 @@
         <v>234</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7406,22 +7412,22 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7440,16 +7446,16 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7499,7 +7505,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7514,18 +7520,18 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7548,13 +7554,13 @@
         <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7605,7 +7611,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7623,15 +7629,15 @@
         <v>130</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7654,13 +7660,13 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7711,7 +7717,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7726,7 +7732,7 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>42</v>
@@ -7737,7 +7743,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7763,10 +7769,10 @@
         <v>197</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7817,7 +7823,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7832,18 +7838,18 @@
         <v>201</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7949,7 +7955,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8057,7 +8063,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8165,7 +8171,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8191,13 +8197,13 @@
         <v>147</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8226,10 +8232,10 @@
         <v>72</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -8247,7 +8253,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8262,18 +8268,18 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8299,10 +8305,10 @@
         <v>173</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8353,7 +8359,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8368,18 +8374,18 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8402,13 +8408,13 @@
         <v>50</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8459,7 +8465,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8474,18 +8480,18 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8508,13 +8514,13 @@
         <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8565,7 +8571,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8580,18 +8586,18 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8617,13 +8623,13 @@
         <v>173</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8673,7 +8679,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8688,18 +8694,18 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8722,16 +8728,16 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8781,7 +8787,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8796,22 +8802,22 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8833,13 +8839,13 @@
         <v>147</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8865,13 +8871,13 @@
         <v>42</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8889,7 +8895,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8904,18 +8910,18 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9021,7 +9027,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9129,7 +9135,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9237,7 +9243,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>250</v>
@@ -9349,7 +9355,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9455,7 +9461,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9561,7 +9567,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>255</v>
@@ -9589,10 +9595,10 @@
         <v>256</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9658,7 +9664,7 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>42</v>
@@ -9669,7 +9675,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9695,23 +9701,23 @@
         <v>62</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>42</v>
@@ -9753,7 +9759,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9768,18 +9774,18 @@
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9805,13 +9811,13 @@
         <v>126</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9861,7 +9867,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -9876,18 +9882,18 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9913,14 +9919,14 @@
         <v>68</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -9969,7 +9975,7 @@
         <v>42</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9984,18 +9990,18 @@
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10021,14 +10027,14 @@
         <v>126</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -10077,7 +10083,7 @@
         <v>42</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -10092,18 +10098,18 @@
         <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10126,19 +10132,19 @@
         <v>50</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -10187,7 +10193,7 @@
         <v>42</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -10202,18 +10208,18 @@
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10239,16 +10245,16 @@
         <v>126</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -10297,7 +10303,7 @@
         <v>42</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10312,18 +10318,18 @@
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10349,10 +10355,10 @@
         <v>197</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10403,7 +10409,7 @@
         <v>42</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10418,7 +10424,7 @@
         <v>201</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>42</v>
@@ -10429,7 +10435,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10535,7 +10541,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10643,7 +10649,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10751,11 +10757,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10774,16 +10780,16 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10833,7 +10839,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>49</v>
@@ -10848,18 +10854,18 @@
         <v>42</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10885,10 +10891,10 @@
         <v>147</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10915,13 +10921,13 @@
         <v>42</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>42</v>
@@ -10939,7 +10945,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10965,7 +10971,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10988,13 +10994,13 @@
         <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11045,7 +11051,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -11060,7 +11066,7 @@
         <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>42</v>
@@ -11071,7 +11077,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11094,16 +11100,16 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11153,7 +11159,7 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -11168,7 +11174,7 @@
         <v>42</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>42</v>
@@ -11179,7 +11185,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11205,13 +11211,13 @@
         <v>197</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11261,7 +11267,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11276,7 +11282,7 @@
         <v>201</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>42</v>
@@ -11287,7 +11293,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11393,7 +11399,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11497,10 +11503,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>42</v>
@@ -11522,10 +11528,10 @@
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>96</v>
@@ -11605,10 +11611,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>42</v>
@@ -11630,10 +11636,10 @@
         <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>96</v>
@@ -11713,7 +11719,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11821,7 +11827,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11847,10 +11853,10 @@
         <v>119</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11901,7 +11907,7 @@
         <v>42</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11922,12 +11928,12 @@
         <v>42</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12033,7 +12039,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12141,7 +12147,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12251,7 +12257,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12361,7 +12367,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12469,7 +12475,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12577,7 +12583,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12683,7 +12689,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12791,7 +12797,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12814,13 +12820,13 @@
         <v>42</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12871,7 +12877,7 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -12886,7 +12892,7 @@
         <v>42</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>42</v>
@@ -12897,7 +12903,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12923,10 +12929,10 @@
         <v>147</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12953,13 +12959,13 @@
         <v>42</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>42</v>
@@ -12977,7 +12983,7 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -12992,18 +12998,18 @@
         <v>42</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13029,10 +13035,10 @@
         <v>147</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13062,10 +13068,10 @@
         <v>234</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>42</v>
@@ -13083,7 +13089,7 @@
         <v>42</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -13104,12 +13110,12 @@
         <v>42</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13215,7 +13221,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13323,7 +13329,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13431,7 +13437,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>250</v>
@@ -13543,7 +13549,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13649,7 +13655,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13755,7 +13761,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>255</v>
@@ -13783,10 +13789,10 @@
         <v>256</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13852,7 +13858,7 @@
         <v>42</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>42</v>
@@ -13863,7 +13869,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13889,23 +13895,23 @@
         <v>62</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>42</v>
@@ -13947,7 +13953,7 @@
         <v>42</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -13962,18 +13968,18 @@
         <v>42</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13999,13 +14005,13 @@
         <v>126</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14055,7 +14061,7 @@
         <v>42</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
@@ -14070,18 +14076,18 @@
         <v>42</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14107,14 +14113,14 @@
         <v>68</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>42</v>
@@ -14163,7 +14169,7 @@
         <v>42</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>40</v>
@@ -14178,18 +14184,18 @@
         <v>42</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14215,14 +14221,14 @@
         <v>126</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>42</v>
@@ -14271,7 +14277,7 @@
         <v>42</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -14286,18 +14292,18 @@
         <v>42</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14320,19 +14326,19 @@
         <v>50</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>42</v>
@@ -14381,7 +14387,7 @@
         <v>42</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
@@ -14396,18 +14402,18 @@
         <v>42</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14433,16 +14439,16 @@
         <v>126</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>42</v>
@@ -14491,7 +14497,7 @@
         <v>42</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14506,18 +14512,18 @@
         <v>42</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14543,16 +14549,16 @@
         <v>147</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>42</v>
@@ -14599,7 +14605,7 @@
         <v>42</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -14614,18 +14620,18 @@
         <v>42</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14651,10 +14657,10 @@
         <v>147</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14681,13 +14687,13 @@
         <v>42</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>42</v>
@@ -14705,7 +14711,7 @@
         <v>42</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -14720,18 +14726,18 @@
         <v>42</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14757,10 +14763,10 @@
         <v>147</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14787,13 +14793,13 @@
         <v>42</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>42</v>
@@ -14811,7 +14817,7 @@
         <v>42</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -14826,18 +14832,18 @@
         <v>42</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14860,13 +14866,13 @@
         <v>42</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -14917,7 +14923,7 @@
         <v>42</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
@@ -14932,18 +14938,18 @@
         <v>42</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14969,10 +14975,10 @@
         <v>147</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15002,10 +15008,10 @@
         <v>234</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>42</v>
@@ -15023,7 +15029,7 @@
         <v>42</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -15038,18 +15044,18 @@
         <v>42</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15075,13 +15081,13 @@
         <v>197</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -15131,7 +15137,7 @@
         <v>42</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -15146,7 +15152,7 @@
         <v>201</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>42</v>
@@ -15157,7 +15163,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15263,7 +15269,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15371,7 +15377,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15479,7 +15485,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15502,13 +15508,13 @@
         <v>42</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15559,7 +15565,7 @@
         <v>42</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>49</v>
@@ -15574,18 +15580,18 @@
         <v>42</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15611,13 +15617,13 @@
         <v>68</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -15646,10 +15652,10 @@
         <v>141</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>42</v>
@@ -15667,7 +15673,7 @@
         <v>42</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -15682,7 +15688,7 @@
         <v>42</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>42</v>
@@ -15693,7 +15699,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15719,10 +15725,10 @@
         <v>173</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -15773,7 +15779,7 @@
         <v>42</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>40</v>
@@ -15788,7 +15794,7 @@
         <v>42</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>42</v>
@@ -15799,7 +15805,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15825,10 +15831,10 @@
         <v>180</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15879,7 +15885,7 @@
         <v>42</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
@@ -15894,18 +15900,18 @@
         <v>42</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15928,16 +15934,16 @@
         <v>42</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15987,7 +15993,7 @@
         <v>42</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
@@ -16002,7 +16008,7 @@
         <v>42</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AK131" t="s" s="2">
         <v>42</v>

--- a/docs/CareConnect-Encounter-1.xlsx
+++ b/docs/CareConnect-Encounter-1.xlsx
@@ -1890,16 +1890,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.36328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="125.1875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.18359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1910,19 +1910,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="143.5625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="44.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Encounter-1.xlsx
+++ b/docs/CareConnect-Encounter-1.xlsx
@@ -1890,16 +1890,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.36328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="125.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1910,19 +1910,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="143.5625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.03125" customWidth="true" bestFit="true"/>
